--- a/Battery Module Comparison.xlsx
+++ b/Battery Module Comparison.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16317\Cell-Design\Cell-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266EC317-524D-492E-9A0A-F4ED37FCBC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD288FF-08FE-432E-B54B-88605ED9B4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE997287-5711-45FE-AE3E-D0EC616783BE}"/>
+    <workbookView xWindow="5088" yWindow="1692" windowWidth="15312" windowHeight="9888" xr2:uid="{DE997287-5711-45FE-AE3E-D0EC616783BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -685,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890F0474-513A-4118-8381-205384861A3A}">
-  <dimension ref="C1:K16"/>
+  <dimension ref="C1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1005,14 +1006,16 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="G16">
-        <f>100000/81.4/5</f>
-        <v>245.70024570024572</v>
-      </c>
-      <c r="H16">
-        <f>252*81.4*5</f>
-        <v>102564.00000000001</v>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <f>(1.9/2)^2*PI()</f>
+        <v>2.8352873698647882</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f>H18*2</f>
+        <v>5.6705747397295765</v>
       </c>
     </row>
   </sheetData>

--- a/Battery Module Comparison.xlsx
+++ b/Battery Module Comparison.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16317\Cell-Design\Cell-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD288FF-08FE-432E-B54B-88605ED9B4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65921661-73D8-4F2E-82DC-872B69CE6811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5088" yWindow="1692" windowWidth="15312" windowHeight="9888" xr2:uid="{DE997287-5711-45FE-AE3E-D0EC616783BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE997287-5711-45FE-AE3E-D0EC616783BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Model</t>
   </si>
@@ -270,6 +269,15 @@
   </si>
   <si>
     <t>Samsung SDI (NCM811 Prismatic)</t>
+  </si>
+  <si>
+    <t>40kWh</t>
+  </si>
+  <si>
+    <t>100kWh</t>
+  </si>
+  <si>
+    <t>42kWh</t>
   </si>
 </sst>
 </file>
@@ -688,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890F0474-513A-4118-8381-205384861A3A}">
   <dimension ref="C1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,6 +717,10 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
+      <c r="G1">
+        <f>44.4*F5*8</f>
+        <v>42624</v>
+      </c>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
@@ -750,16 +762,20 @@
         <v>23</v>
       </c>
       <c r="F4">
-        <v>66.2</v>
+        <f>56.3*2</f>
+        <v>112.6</v>
       </c>
       <c r="G4">
-        <v>7.4</v>
+        <v>14.6</v>
       </c>
       <c r="H4">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>72</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>25</v>
@@ -786,6 +802,9 @@
       </c>
       <c r="I5" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>47</v>
@@ -1001,6 +1020,9 @@
       </c>
       <c r="I13" s="2" t="s">
         <v>71</v>
+      </c>
+      <c r="J13" t="s">
+        <v>73</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>70</v>

--- a/Battery Module Comparison.xlsx
+++ b/Battery Module Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16317\Cell-Design\Cell-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65921661-73D8-4F2E-82DC-872B69CE6811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEB05C7F-C11F-4CC6-B6C0-7860358ADA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE997287-5711-45FE-AE3E-D0EC616783BE}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>Model</t>
   </si>
@@ -144,12 +145,6 @@
     <t>24^ cells</t>
   </si>
   <si>
-    <t>864 cells</t>
-  </si>
-  <si>
-    <t>*2170 battery</t>
-  </si>
-  <si>
     <t>Tesla</t>
   </si>
   <si>
@@ -278,6 +273,44 @@
   </si>
   <si>
     <t>42kWh</t>
+  </si>
+  <si>
+    <t>82 kWh</t>
+  </si>
+  <si>
+    <t>*2170 battery
+135 kWh</t>
+  </si>
+  <si>
+    <t>Model Y</t>
+  </si>
+  <si>
+    <t>60 kWh</t>
+  </si>
+  <si>
+    <t>CATL (LFP Prismatic)</t>
+  </si>
+  <si>
+    <t>Kia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV9 </t>
+  </si>
+  <si>
+    <t>99.8 kWh</t>
+  </si>
+  <si>
+    <t>4s3p</t>
+  </si>
+  <si>
+    <t>12s72p</t>
+  </si>
+  <si>
+    <t>https://www.kia.com/content/dam/kwcms/kme/se/sv/assets/contents/utility/specifications/ev9/kia-ev9-keyfacts.pdf 
+https://www.kiamedia.com/us/en/models/ev9/2024/specifications</t>
+  </si>
+  <si>
+    <t>SK On (NCM)</t>
   </si>
 </sst>
 </file>
@@ -694,26 +727,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890F0474-513A-4118-8381-205384861A3A}">
-  <dimension ref="C1:K19"/>
+  <dimension ref="C1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="11" width="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>8</v>
       </c>
@@ -722,7 +755,7 @@
         <v>42624</v>
       </c>
     </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
@@ -745,13 +778,13 @@
         <v>20</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="3:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:11" ht="60" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -772,16 +805,16 @@
         <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -801,24 +834,24 @@
         <v>8</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K5" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
       </c>
       <c r="F6">
         <v>111.2</v>
@@ -827,19 +860,19 @@
         <v>21.8</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="3:11" ht="60" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -849,17 +882,17 @@
       <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>15</v>
@@ -868,7 +901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="3:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:11" ht="60" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -888,13 +921,16 @@
         <v>12</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="3:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
@@ -902,22 +938,22 @@
         <v>28</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>30</v>
       </c>
@@ -925,36 +961,38 @@
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <f>5*72</f>
+        <v>360</v>
       </c>
       <c r="G10">
-        <v>3.63</v>
+        <f>3.63*12</f>
+        <v>43.56</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" t="s">
-        <v>35</v>
+        <v>51</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="3:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>81.400000000000006</v>
@@ -963,81 +1001,149 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14">
+        <v>152</v>
+      </c>
+      <c r="G14">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13">
-        <v>152</v>
-      </c>
-      <c r="G13">
-        <v>55</v>
-      </c>
-      <c r="H13">
-        <v>12</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H18">
+    </row>
+    <row r="15" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15">
+        <v>180.9</v>
+      </c>
+      <c r="G15">
+        <v>14.5</v>
+      </c>
+      <c r="H15">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f>864*F10*3.6*9</f>
+        <v>10077696</v>
+      </c>
+      <c r="F18">
+        <f>552/38</f>
+        <v>14.526315789473685</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H19">
         <f>(1.9/2)^2*PI()</f>
         <v>2.8352873698647882</v>
       </c>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H19">
-        <f>H18*2</f>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f>F10*G10</f>
+        <v>15681.6</v>
+      </c>
+      <c r="H20">
+        <f>H19*2</f>
         <v>5.6705747397295765</v>
+      </c>
+      <c r="I20">
+        <f>G10*H10</f>
+        <v>392.04</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f>F10*G10*H10</f>
+        <v>141134.39999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1046,10 +1152,11 @@
     <hyperlink ref="K7" r:id="rId2" xr:uid="{EB467268-91EA-4D68-838D-CF58423EB70D}"/>
     <hyperlink ref="K9" r:id="rId3" display="https://www.macheforum.com/site/threads/new-mach-e-lfp-battery-specs-revealed.26099/" xr:uid="{D2EA7D09-1194-4211-B9F6-4C2A305C2B83}"/>
     <hyperlink ref="K5" r:id="rId4" display="https://evshop.eu/en/batteries/298-bmwi3-42kwh-battery-pack.html" xr:uid="{386A080D-E370-4B0F-83E9-4CCF21433C1B}"/>
-    <hyperlink ref="K12" r:id="rId5" xr:uid="{A4352FA4-F2E4-4D93-ADF2-7E0700279FD0}"/>
-    <hyperlink ref="K13" r:id="rId6" display="https://www.audi-mediacenter.com/en/the-audi-q6-e-tron-electric-mobility-on-a-new-level-15929/battery-and-charging-15933" xr:uid="{2510AE34-E00B-4789-8B72-B91335460C55}"/>
+    <hyperlink ref="K13" r:id="rId5" xr:uid="{A4352FA4-F2E4-4D93-ADF2-7E0700279FD0}"/>
+    <hyperlink ref="K14" r:id="rId6" display="https://www.audi-mediacenter.com/en/the-audi-q6-e-tron-electric-mobility-on-a-new-level-15929/battery-and-charging-15933" xr:uid="{2510AE34-E00B-4789-8B72-B91335460C55}"/>
+    <hyperlink ref="K15" r:id="rId7" display="https://www.kia.com/content/dam/kwcms/kme/se/sv/assets/contents/utility/specifications/ev9/kia-ev9-keyfacts.pdf " xr:uid="{F77F1D7E-DD31-460E-A443-868B8198A31C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>